--- a/仕様書/アクション仕様.xlsx
+++ b/仕様書/アクション仕様.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>リモ変身種一覧</t>
     <rPh sb="2" eb="4">
@@ -292,6 +292,161 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常時糸</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛ばす・画面外もしくは当たったら消える</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面内には自分のは３発まで</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>パツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たったら鈍足効果</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドンソク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果中に当たったら効果時間元に戻す</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果の加算はしない</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足場糸</t>
+    <rPh sb="0" eb="2">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時に３個まで維持できる</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４つ目以降は最初を消す</t>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消すときは誰も乗ってなかったら消す</t>
+    <rPh sb="0" eb="1">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -356,7 +511,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -398,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +588,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,15 +797,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:L29"/>
+  <dimension ref="C2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="31.25" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.15">
@@ -814,6 +969,51 @@
       </c>
       <c r="H29" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G40" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/アクション仕様.xlsx
+++ b/仕様書/アクション仕様.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>リモ変身種一覧</t>
     <rPh sb="2" eb="4">
@@ -292,161 +292,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ナグ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常時糸</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飛ばす・画面外もしくは当たったら消える</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面内には自分のは３発まで</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>パツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当たったら鈍足効果</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ドンソク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダメージなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果中に当たったら効果時間元に戻す</t>
-    <rPh sb="0" eb="2">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果の加算はしない</t>
-    <rPh sb="0" eb="2">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>足場糸</t>
-    <rPh sb="0" eb="2">
-      <t>アシバ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同時に３個まで維持できる</t>
-    <rPh sb="0" eb="2">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>４つ目以降は最初を消す</t>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消すときは誰も乗ってなかったら消す</t>
-    <rPh sb="0" eb="1">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -511,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,7 +398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,7 +433,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,15 +642,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:L40"/>
+  <dimension ref="C2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.15">
@@ -969,51 +814,6 @@
       </c>
       <c r="H29" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G40" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
